--- a/CastReporting.Reporting.Core/Templates/zh-Hans/Application/Sizing reports/Function-points-sample.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-Hans/Application/Sizing reports/Function-points-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJG\cast-repos\report-gen\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\zh-Hans\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165585D9-347E-4D39-9C8F-AEB653337565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2413781A-8209-4E92-8E07-D7C4BCF54E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Data Functions" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$17:$F$20</definedName>
-    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$3</definedName>
+    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$18:$F$21</definedName>
+    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$4</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!$E$1</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
-    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$4</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$5</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -491,7 +491,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -513,7 +513,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,7 +528,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,7 +537,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,8 +546,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,23 +556,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
@@ -597,7 +590,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,6 +604,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -713,7 +718,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$18:$E$19</c:f>
+              <c:f>Summary!$C$19:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -727,7 +732,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$18:$F$19</c:f>
+              <c:f>Summary!$F$19:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -792,69 +797,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>189634</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>112567</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>164454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -874,10 +827,60 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1220932</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1011342</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2540879-025A-4198-97AE-5382F8CBC59B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5325341" y="216478"/>
+          <a:ext cx="1106592" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1284,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,8 +1316,8 @@
       <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -1326,115 +1329,123 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="20" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="15" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G4" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="6" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="10" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="33" t="s">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
-    </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N8" s="37"/>
-      <c r="O8" s="36"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="48" t="s">
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="34"/>
+      <c r="O9" s="33"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="38" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="14">
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="14">
         <f>SUM('Transactional Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="14">
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="14">
         <f>SUM('Data Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G20" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="12" t="s">
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="30">
-        <f>F18+F19</f>
+      <c r="F21" s="29">
+        <f>F19+F20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G18" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G19" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G18:H18" location="'Transactional Functions'!A1" display="Browse TF" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G19:H19" location="'Data Functions'!A1" display="Browse DF" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G19" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G20" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G19:H19" location="'Transactional Functions'!A1" display="Browse TF" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G20:H20" location="'Data Functions'!A1" display="Browse DF" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1521,7 +1532,7 @@
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -1559,7 +1570,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -1575,14 +1586,13 @@
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="26" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="26"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1601,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
@@ -1602,7 +1612,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -1636,35 +1646,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>

--- a/CastReporting.Reporting.Core/Templates/zh-Hans/Application/Sizing reports/Function-points-sample.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-Hans/Application/Sizing reports/Function-points-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Temp\RG\Templates\zh-Hans\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165585D9-347E-4D39-9C8F-AEB653337565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94698DD-1D00-4554-82D6-F33846E0138E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="2430" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Data Functions" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$17:$F$20</definedName>
-    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$3</definedName>
+    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$18:$F$21</definedName>
+    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$4</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!$E$1</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
-    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$4</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$5</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -491,7 +491,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -513,7 +513,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,7 +528,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,7 +537,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,8 +546,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,23 +556,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
@@ -597,7 +602,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,7 +718,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$18:$E$19</c:f>
+              <c:f>Summary!$C$19:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -727,7 +732,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$18:$F$19</c:f>
+              <c:f>Summary!$F$19:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -792,69 +797,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>189634</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>112567</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>164454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -874,10 +827,60 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1220932</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1011342</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2540879-025A-4198-97AE-5382F8CBC59B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5325341" y="216478"/>
+          <a:ext cx="1106592" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -887,52 +890,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>72736</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>610466</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1773342</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>187036</xdr:rowOff>
+      <xdr:rowOff>379050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2C0A48-0C11-4CCC-80EA-485F31EBFC1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143625" y="272761"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="11058525" y="219075"/>
+          <a:ext cx="1106592" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -944,52 +945,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>72736</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>610466</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1725717</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>187036</xdr:rowOff>
+      <xdr:rowOff>369525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79759671-5E30-4CFF-9650-C822FE62F56B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143625" y="272761"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="11001375" y="209550"/>
+          <a:ext cx="1106592" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1284,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,8 +1312,8 @@
       <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -1326,115 +1325,123 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="20" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="15" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G4" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="6" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="10" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="33" t="s">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
-    </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N8" s="37"/>
-      <c r="O8" s="36"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="48" t="s">
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="34"/>
+      <c r="O9" s="33"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="38" t="s">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="14">
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="14">
         <f>SUM('Transactional Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
+      <c r="H19" s="44"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="14">
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="14">
         <f>SUM('Data Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="12" t="s">
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="30">
-        <f>F18+F19</f>
+      <c r="F21" s="29">
+        <f>F19+F20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G18" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G19" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G18:H18" location="'Transactional Functions'!A1" display="Browse TF" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G19:H19" location="'Data Functions'!A1" display="Browse DF" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G19" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G20" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G19:H19" location="'Transactional Functions'!A1" display="Browse TF" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G20:H20" location="'Data Functions'!A1" display="Browse DF" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1447,7 +1454,7 @@
   <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1481,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1528,7 @@
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -1559,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,14 +1582,13 @@
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="26" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="26"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1597,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
@@ -1602,7 +1608,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -1636,35 +1642,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
